--- a/cmbautomiser/ods_templates/bill.xlsx
+++ b/cmbautomiser/ods_templates/bill.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="start" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="end" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="start" sheetId="1" r:id="rId1"/>
+    <sheet name="end" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles_0_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">start!$8:$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">start!$8:$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">start!$8:$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">start!$1:$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">start!$8:$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">#ref!!#ref!</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">#ref!!#ref!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">start!$8:$8</definedName>
+    <definedName name="Print_Titles_0" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0_0" localSheetId="0">start!$8:$8</definedName>
+    <definedName name="Print_Titles_0_0_0" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0_0_0_0" localSheetId="0">start!$8:$10</definedName>
+    <definedName name="Print_Titles_0_0_0_0_0" localSheetId="0">start!$1:$1</definedName>
+    <definedName name="Print_Titles_0_0_0_0_0_0" localSheetId="0">start!$8:$10</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -81,32 +76,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="0\)"/>
-    <numFmt numFmtId="166" formatCode="[$₹-4009]#,##0.00;[RED]\-[$₹-4009]#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0\)"/>
+    <numFmt numFmtId="165" formatCode="[$₹-4009]#,##0.00;[Red]\-[$₹-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -115,14 +94,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -137,8 +116,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -154,154 +133,401 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.96428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.1530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.66836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="1" width="11.25"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="16.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" width="6" style="1"/>
+    <col min="2" max="2" width="40.140625" style="1"/>
+    <col min="3" max="3" width="7.5703125" style="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" style="1"/>
+    <col min="7" max="8" width="16.85546875" style="1"/>
+    <col min="9" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="28.15" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -327,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -337,7 +563,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="13.9" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
@@ -349,7 +575,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -359,7 +585,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
         <v>9</v>
@@ -371,60 +597,55 @@
       <c r="G5" s="12"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8">
       <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="79" firstPageNumber="0" fitToHeight="99" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="45.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.7091836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.86224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.1071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="45.7109375" style="1"/>
+    <col min="3" max="3" width="11.7109375" style="1"/>
+    <col min="4" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="12.7109375" style="1"/>
+    <col min="6" max="6" width="9.85546875" style="1"/>
+    <col min="7" max="7" width="16.140625" style="1"/>
+    <col min="8" max="8" width="17.7109375" style="1"/>
+    <col min="9" max="1025" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8">
       <c r="A1" s="13"/>
       <c r="B1" s="14" t="s">
         <v>12</v>
@@ -436,7 +657,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>13</v>
@@ -448,7 +669,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>14</v>
@@ -458,18 +679,13 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
-      <c r="H3" s="17" t="n">
-        <f aca="true">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
+      <c r="H3" s="17">
+        <f ca="1">ROUND(INDIRECT(ADDRESS(ROW()-2,7))-INDIRECT(ADDRESS(ROW()-1,7)),2)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="5" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="99" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" scale="77" firstPageNumber="0" fitToHeight="99" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>